--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam5-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam5-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Icam5</t>
+  </si>
+  <si>
+    <t>Itgb2</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Icam5</t>
-  </si>
-  <si>
-    <t>Itgb2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6592603333333333</v>
+        <v>0.726068</v>
       </c>
       <c r="H2">
-        <v>1.977781</v>
+        <v>2.178204</v>
       </c>
       <c r="I2">
-        <v>0.0697520544219376</v>
+        <v>0.06447196589024295</v>
       </c>
       <c r="J2">
-        <v>0.0697520544219376</v>
+        <v>0.06447196589024294</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.05619066666666667</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N2">
-        <v>0.168572</v>
+        <v>6.321202</v>
       </c>
       <c r="O2">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P2">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q2">
-        <v>0.03704427763688889</v>
+        <v>1.529874164578667</v>
       </c>
       <c r="R2">
-        <v>0.333398498732</v>
+        <v>13.768867481208</v>
       </c>
       <c r="S2">
-        <v>9.164791877947322E-06</v>
+        <v>0.000238786095158591</v>
       </c>
       <c r="T2">
-        <v>9.164791877947322E-06</v>
+        <v>0.0002387860951585909</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6592603333333333</v>
+        <v>0.726068</v>
       </c>
       <c r="H3">
-        <v>1.977781</v>
+        <v>2.178204</v>
       </c>
       <c r="I3">
-        <v>0.0697520544219376</v>
+        <v>0.06447196589024295</v>
       </c>
       <c r="J3">
-        <v>0.0697520544219376</v>
+        <v>0.06447196589024294</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>139.7989746666667</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N3">
-        <v>419.396924</v>
+        <v>657.462113</v>
       </c>
       <c r="O3">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P3">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q3">
-        <v>92.16391863840489</v>
+        <v>159.1207338205614</v>
       </c>
       <c r="R3">
-        <v>829.475267745644</v>
+        <v>1432.086604385052</v>
       </c>
       <c r="S3">
-        <v>0.02280144699422971</v>
+        <v>0.02483591106216607</v>
       </c>
       <c r="T3">
-        <v>0.02280144699422971</v>
+        <v>0.02483591106216607</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6592603333333333</v>
+        <v>0.726068</v>
       </c>
       <c r="H4">
-        <v>1.977781</v>
+        <v>2.178204</v>
       </c>
       <c r="I4">
-        <v>0.0697520544219376</v>
+        <v>0.06447196589024295</v>
       </c>
       <c r="J4">
-        <v>0.0697520544219376</v>
+        <v>0.06447196589024294</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>188.11053</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N4">
-        <v>564.33159</v>
+        <v>0.13486</v>
       </c>
       <c r="O4">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P4">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q4">
-        <v>124.01381071131</v>
+        <v>0.03263917682666667</v>
       </c>
       <c r="R4">
-        <v>1116.12429640179</v>
+        <v>0.29375259144</v>
       </c>
       <c r="S4">
-        <v>0.03068114261265868</v>
+        <v>5.094393881588911E-06</v>
       </c>
       <c r="T4">
-        <v>0.03068114261265868</v>
+        <v>5.094393881588909E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6592603333333333</v>
+        <v>0.726068</v>
       </c>
       <c r="H5">
-        <v>1.977781</v>
+        <v>2.178204</v>
       </c>
       <c r="I5">
-        <v>0.0697520544219376</v>
+        <v>0.06447196589024295</v>
       </c>
       <c r="J5">
-        <v>0.0697520544219376</v>
+        <v>0.06447196589024294</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,90 +747,90 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>99.694255</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N5">
-        <v>299.082765</v>
+        <v>656.961365</v>
       </c>
       <c r="O5">
-        <v>0.2331157147689297</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P5">
-        <v>0.2331157147689298</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q5">
-        <v>65.72446778271834</v>
+        <v>158.9995414542734</v>
       </c>
       <c r="R5">
-        <v>591.520210044465</v>
+        <v>1430.99587308846</v>
       </c>
       <c r="S5">
-        <v>0.01626030002317127</v>
+        <v>0.02481699509340278</v>
       </c>
       <c r="T5">
-        <v>0.01626030002317127</v>
+        <v>0.02481699509340277</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2308976666666667</v>
+        <v>0.726068</v>
       </c>
       <c r="H6">
-        <v>0.692693</v>
+        <v>2.178204</v>
       </c>
       <c r="I6">
-        <v>0.02442978258649225</v>
+        <v>0.06447196589024295</v>
       </c>
       <c r="J6">
-        <v>0.02442978258649225</v>
+        <v>0.06447196589024294</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05619066666666667</v>
+        <v>128.612531</v>
       </c>
       <c r="N6">
-        <v>0.168572</v>
+        <v>385.837593</v>
       </c>
       <c r="O6">
-        <v>0.0001313909956330249</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P6">
-        <v>0.0001313909956330249</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q6">
-        <v>0.01297429382177778</v>
+        <v>93.38144315810801</v>
       </c>
       <c r="R6">
-        <v>0.116768644396</v>
+        <v>840.432988422972</v>
       </c>
       <c r="S6">
-        <v>3.209853457137552E-06</v>
+        <v>0.01457517924563393</v>
       </c>
       <c r="T6">
-        <v>3.209853457137552E-06</v>
+        <v>0.01457517924563393</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -859,40 +859,40 @@
         <v>0.692693</v>
       </c>
       <c r="I7">
-        <v>0.02442978258649225</v>
+        <v>0.02050279931007842</v>
       </c>
       <c r="J7">
-        <v>0.02442978258649225</v>
+        <v>0.02050279931007842</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>139.7989746666667</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N7">
-        <v>419.396924</v>
+        <v>6.321202</v>
       </c>
       <c r="O7">
-        <v>0.3268928375399716</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P7">
-        <v>0.3268928375399716</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q7">
-        <v>32.27925705292578</v>
+        <v>0.4865169307762223</v>
       </c>
       <c r="R7">
-        <v>290.513313476332</v>
+        <v>4.378652376986</v>
       </c>
       <c r="S7">
-        <v>0.007985920950183039</v>
+        <v>7.593662329776727E-05</v>
       </c>
       <c r="T7">
-        <v>0.007985920950183039</v>
+        <v>7.593662329776725E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -921,10 +921,10 @@
         <v>0.692693</v>
       </c>
       <c r="I8">
-        <v>0.02442978258649225</v>
+        <v>0.02050279931007842</v>
       </c>
       <c r="J8">
-        <v>0.02442978258649225</v>
+        <v>0.02050279931007842</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>188.11053</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N8">
-        <v>564.33159</v>
+        <v>657.462113</v>
       </c>
       <c r="O8">
-        <v>0.4398600566954656</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P8">
-        <v>0.4398600566954656</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q8">
-        <v>43.43428245243</v>
+        <v>50.60215593781211</v>
       </c>
       <c r="R8">
-        <v>390.90854207187</v>
+        <v>455.4194034403091</v>
       </c>
       <c r="S8">
-        <v>0.01074568555355238</v>
+        <v>0.007898094825546645</v>
       </c>
       <c r="T8">
-        <v>0.01074568555355238</v>
+        <v>0.007898094825546643</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -983,134 +983,134 @@
         <v>0.692693</v>
       </c>
       <c r="I9">
-        <v>0.02442978258649225</v>
+        <v>0.02050279931007842</v>
       </c>
       <c r="J9">
-        <v>0.02442978258649225</v>
+        <v>0.02050279931007842</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>99.694255</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N9">
-        <v>299.082765</v>
+        <v>0.13486</v>
       </c>
       <c r="O9">
-        <v>0.2331157147689297</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P9">
-        <v>0.2331157147689298</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q9">
-        <v>23.01917085957167</v>
+        <v>0.01037961977555556</v>
       </c>
       <c r="R9">
-        <v>207.172537736145</v>
+        <v>0.09341657798000001</v>
       </c>
       <c r="S9">
-        <v>0.005694966229299693</v>
+        <v>1.620073685026502E-06</v>
       </c>
       <c r="T9">
-        <v>0.005694966229299694</v>
+        <v>1.620073685026502E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.5331756666666666</v>
+        <v>0.2308976666666667</v>
       </c>
       <c r="H10">
-        <v>1.599527</v>
+        <v>0.692693</v>
       </c>
       <c r="I10">
-        <v>0.05641185467620458</v>
+        <v>0.02050279931007842</v>
       </c>
       <c r="J10">
-        <v>0.05641185467620459</v>
+        <v>0.02050279931007842</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.05619066666666667</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N10">
-        <v>0.168572</v>
+        <v>656.961365</v>
       </c>
       <c r="O10">
-        <v>0.0001313909956330249</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P10">
-        <v>0.0001313909956330249</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q10">
-        <v>0.02995949616044444</v>
+        <v>50.56361542288278</v>
       </c>
       <c r="R10">
-        <v>0.269635465444</v>
+        <v>455.072538805945</v>
       </c>
       <c r="S10">
-        <v>7.412009751412034E-06</v>
+        <v>0.007892079337947432</v>
       </c>
       <c r="T10">
-        <v>7.412009751412035E-06</v>
+        <v>0.007892079337947432</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.5331756666666666</v>
+        <v>0.2308976666666667</v>
       </c>
       <c r="H11">
-        <v>1.599527</v>
+        <v>0.692693</v>
       </c>
       <c r="I11">
-        <v>0.05641185467620458</v>
+        <v>0.02050279931007842</v>
       </c>
       <c r="J11">
-        <v>0.05641185467620459</v>
+        <v>0.02050279931007842</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7989746666667</v>
+        <v>128.612531</v>
       </c>
       <c r="N11">
-        <v>419.396924</v>
+        <v>385.837593</v>
       </c>
       <c r="O11">
-        <v>0.3268928375399716</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P11">
-        <v>0.3268928375399716</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q11">
-        <v>74.53741151721644</v>
+        <v>29.69633331199434</v>
       </c>
       <c r="R11">
-        <v>670.836703654948</v>
+        <v>267.266999807949</v>
       </c>
       <c r="S11">
-        <v>0.01844063124599703</v>
+        <v>0.004635068449601555</v>
       </c>
       <c r="T11">
-        <v>0.01844063124599703</v>
+        <v>0.004635068449601554</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.5331756666666666</v>
+        <v>0.3450123333333333</v>
       </c>
       <c r="H12">
-        <v>1.599527</v>
+        <v>1.035037</v>
       </c>
       <c r="I12">
-        <v>0.05641185467620458</v>
+        <v>0.03063573024342044</v>
       </c>
       <c r="J12">
-        <v>0.05641185467620459</v>
+        <v>0.03063573024342044</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>188.11053</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N12">
-        <v>564.33159</v>
+        <v>6.321202</v>
       </c>
       <c r="O12">
-        <v>0.4398600566954656</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P12">
-        <v>0.4398600566954656</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q12">
-        <v>100.29595723977</v>
+        <v>0.7269642171637778</v>
       </c>
       <c r="R12">
-        <v>902.6636151579299</v>
+        <v>6.542677954474001</v>
       </c>
       <c r="S12">
-        <v>0.02481332159617171</v>
+        <v>0.0001134661599990921</v>
       </c>
       <c r="T12">
-        <v>0.02481332159617172</v>
+        <v>0.0001134661599990921</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.5331756666666666</v>
+        <v>0.3450123333333333</v>
       </c>
       <c r="H13">
-        <v>1.599527</v>
+        <v>1.035037</v>
       </c>
       <c r="I13">
-        <v>0.05641185467620458</v>
+        <v>0.03063573024342044</v>
       </c>
       <c r="J13">
-        <v>0.05641185467620459</v>
+        <v>0.03063573024342044</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,60 +1243,60 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>99.694255</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N13">
-        <v>299.082765</v>
+        <v>657.462113</v>
       </c>
       <c r="O13">
-        <v>0.2331157147689297</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P13">
-        <v>0.2331157147689298</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q13">
-        <v>53.15455087246166</v>
+        <v>75.61084589479789</v>
       </c>
       <c r="R13">
-        <v>478.3909578521549</v>
+        <v>680.497613053181</v>
       </c>
       <c r="S13">
-        <v>0.01315048982428442</v>
+        <v>0.01180150567993227</v>
       </c>
       <c r="T13">
-        <v>0.01315048982428443</v>
+        <v>0.01180150567993227</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.03503</v>
+        <v>0.3450123333333333</v>
       </c>
       <c r="H14">
-        <v>0.10509</v>
+        <v>1.035037</v>
       </c>
       <c r="I14">
-        <v>0.003706296803944129</v>
+        <v>0.03063573024342044</v>
       </c>
       <c r="J14">
-        <v>0.003706296803944129</v>
+        <v>0.03063573024342044</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,60 +1305,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.05619066666666667</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N14">
-        <v>0.168572</v>
+        <v>0.13486</v>
       </c>
       <c r="O14">
-        <v>0.0001313909956330249</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P14">
-        <v>0.0001313909956330249</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q14">
-        <v>0.001968359053333333</v>
+        <v>0.01550945442444445</v>
       </c>
       <c r="R14">
-        <v>0.01771523148</v>
+        <v>0.13958508982</v>
       </c>
       <c r="S14">
-        <v>4.869740271817173E-07</v>
+        <v>2.420749461491275E-06</v>
       </c>
       <c r="T14">
-        <v>4.869740271817173E-07</v>
+        <v>2.420749461491275E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.03503</v>
+        <v>0.3450123333333333</v>
       </c>
       <c r="H15">
-        <v>0.10509</v>
+        <v>1.035037</v>
       </c>
       <c r="I15">
-        <v>0.003706296803944129</v>
+        <v>0.03063573024342044</v>
       </c>
       <c r="J15">
-        <v>0.003706296803944129</v>
+        <v>0.03063573024342044</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,60 +1367,60 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>139.7989746666667</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N15">
-        <v>419.396924</v>
+        <v>656.961365</v>
       </c>
       <c r="O15">
-        <v>0.3268928375399716</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P15">
-        <v>0.3268928375399716</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q15">
-        <v>4.897158082573333</v>
+        <v>75.55325781616722</v>
       </c>
       <c r="R15">
-        <v>44.07442274316</v>
+        <v>679.979320345505</v>
       </c>
       <c r="S15">
-        <v>0.001211561879006624</v>
+        <v>0.01179251720706156</v>
       </c>
       <c r="T15">
-        <v>0.001211561879006624</v>
+        <v>0.01179251720706156</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.03503</v>
+        <v>0.3450123333333333</v>
       </c>
       <c r="H16">
-        <v>0.10509</v>
+        <v>1.035037</v>
       </c>
       <c r="I16">
-        <v>0.003706296803944129</v>
+        <v>0.03063573024342044</v>
       </c>
       <c r="J16">
-        <v>0.003706296803944129</v>
+        <v>0.03063573024342044</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>188.11053</v>
+        <v>128.612531</v>
       </c>
       <c r="N16">
-        <v>564.33159</v>
+        <v>385.837593</v>
       </c>
       <c r="O16">
-        <v>0.4398600566954656</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P16">
-        <v>0.4398600566954656</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q16">
-        <v>6.5895118659</v>
+        <v>44.37290941621567</v>
       </c>
       <c r="R16">
-        <v>59.3056067931</v>
+        <v>399.3561847459411</v>
       </c>
       <c r="S16">
-        <v>0.001630251922313087</v>
+        <v>0.006925820446966035</v>
       </c>
       <c r="T16">
-        <v>0.001630251922313087</v>
+        <v>0.006925820446966035</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1479,196 +1479,196 @@
         <v>0.10509</v>
       </c>
       <c r="I17">
-        <v>0.003706296803944129</v>
+        <v>0.003110525412406566</v>
       </c>
       <c r="J17">
-        <v>0.003706296803944129</v>
+        <v>0.003110525412406566</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>99.694255</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N17">
-        <v>299.082765</v>
+        <v>6.321202</v>
       </c>
       <c r="O17">
-        <v>0.2331157147689297</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P17">
-        <v>0.2331157147689298</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q17">
-        <v>3.49228975265</v>
+        <v>0.07381056868666667</v>
       </c>
       <c r="R17">
-        <v>31.43060777385</v>
+        <v>0.6642951181800001</v>
       </c>
       <c r="S17">
-        <v>0.0008639960285972354</v>
+        <v>1.152051448818215E-05</v>
       </c>
       <c r="T17">
-        <v>0.0008639960285972355</v>
+        <v>1.152051448818215E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>7.376235</v>
+        <v>0.03503</v>
       </c>
       <c r="H18">
-        <v>22.128705</v>
+        <v>0.10509</v>
       </c>
       <c r="I18">
-        <v>0.7804315217139829</v>
+        <v>0.003110525412406566</v>
       </c>
       <c r="J18">
-        <v>0.7804315217139829</v>
+        <v>0.003110525412406566</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.05619066666666667</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N18">
-        <v>0.168572</v>
+        <v>657.462113</v>
       </c>
       <c r="O18">
-        <v>0.0001313909956330249</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P18">
-        <v>0.0001313909956330249</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q18">
-        <v>0.41447556214</v>
+        <v>7.676965939463334</v>
       </c>
       <c r="R18">
-        <v>3.73028005926</v>
+        <v>69.09269345517001</v>
       </c>
       <c r="S18">
-        <v>0.0001025416746613969</v>
+        <v>0.001198237581752229</v>
       </c>
       <c r="T18">
-        <v>0.0001025416746613969</v>
+        <v>0.001198237581752229</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>7.376235</v>
+        <v>0.03503</v>
       </c>
       <c r="H19">
-        <v>22.128705</v>
+        <v>0.10509</v>
       </c>
       <c r="I19">
-        <v>0.7804315217139829</v>
+        <v>0.003110525412406566</v>
       </c>
       <c r="J19">
-        <v>0.7804315217139829</v>
+        <v>0.003110525412406566</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>139.7989746666667</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N19">
-        <v>419.396924</v>
+        <v>0.13486</v>
       </c>
       <c r="O19">
-        <v>0.3268928375399716</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P19">
-        <v>0.3268928375399716</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q19">
-        <v>1031.19008990038</v>
+        <v>0.001574715266666667</v>
       </c>
       <c r="R19">
-        <v>9280.710809103421</v>
+        <v>0.0141724374</v>
       </c>
       <c r="S19">
-        <v>0.2551174746387219</v>
+        <v>2.457849921385594E-07</v>
       </c>
       <c r="T19">
-        <v>0.2551174746387219</v>
+        <v>2.457849921385594E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>7.376235</v>
+        <v>0.03503</v>
       </c>
       <c r="H20">
-        <v>22.128705</v>
+        <v>0.10509</v>
       </c>
       <c r="I20">
-        <v>0.7804315217139829</v>
+        <v>0.003110525412406566</v>
       </c>
       <c r="J20">
-        <v>0.7804315217139829</v>
+        <v>0.003110525412406566</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,60 +1677,60 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>188.11053</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N20">
-        <v>564.33159</v>
+        <v>656.961365</v>
       </c>
       <c r="O20">
-        <v>0.4398600566954656</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P20">
-        <v>0.4398600566954656</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q20">
-        <v>1387.54747525455</v>
+        <v>7.671118871983333</v>
       </c>
       <c r="R20">
-        <v>12487.92727729095</v>
+        <v>69.04006984785001</v>
       </c>
       <c r="S20">
-        <v>0.343280653388041</v>
+        <v>0.001197324958711717</v>
       </c>
       <c r="T20">
-        <v>0.343280653388041</v>
+        <v>0.001197324958711717</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>27</v>
       </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>7.376235</v>
+        <v>0.03503</v>
       </c>
       <c r="H21">
-        <v>22.128705</v>
+        <v>0.10509</v>
       </c>
       <c r="I21">
-        <v>0.7804315217139829</v>
+        <v>0.003110525412406566</v>
       </c>
       <c r="J21">
-        <v>0.7804315217139829</v>
+        <v>0.003110525412406566</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,39 +1739,39 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>99.694255</v>
+        <v>128.612531</v>
       </c>
       <c r="N21">
-        <v>299.082765</v>
+        <v>385.837593</v>
       </c>
       <c r="O21">
-        <v>0.2331157147689297</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P21">
-        <v>0.2331157147689298</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q21">
-        <v>735.368253029925</v>
+        <v>4.505296960930001</v>
       </c>
       <c r="R21">
-        <v>6618.314277269325</v>
+        <v>40.54767264837</v>
       </c>
       <c r="S21">
-        <v>0.1819308520125586</v>
+        <v>0.000703196572462299</v>
       </c>
       <c r="T21">
-        <v>0.1819308520125587</v>
+        <v>0.000703196572462299</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.616884</v>
+        <v>9.924754999999999</v>
       </c>
       <c r="H22">
-        <v>1.850652</v>
+        <v>29.774265</v>
       </c>
       <c r="I22">
-        <v>0.06526848979743848</v>
+        <v>0.8812789791438517</v>
       </c>
       <c r="J22">
-        <v>0.06526848979743848</v>
+        <v>0.8812789791438517</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,39 +1801,39 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.05619066666666667</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N22">
-        <v>0.168572</v>
+        <v>6.321202</v>
       </c>
       <c r="O22">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P22">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q22">
-        <v>0.034663123216</v>
+        <v>20.91212705183667</v>
       </c>
       <c r="R22">
-        <v>0.311968108944</v>
+        <v>188.20914346653</v>
       </c>
       <c r="S22">
-        <v>8.575691857949373E-06</v>
+        <v>0.003264010384503519</v>
       </c>
       <c r="T22">
-        <v>8.575691857949373E-06</v>
+        <v>0.003264010384503519</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.616884</v>
+        <v>9.924754999999999</v>
       </c>
       <c r="H23">
-        <v>1.850652</v>
+        <v>29.774265</v>
       </c>
       <c r="I23">
-        <v>0.06526848979743848</v>
+        <v>0.8812789791438517</v>
       </c>
       <c r="J23">
-        <v>0.06526848979743848</v>
+        <v>0.8812789791438517</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,42 +1863,42 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.7989746666667</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N23">
-        <v>419.396924</v>
+        <v>657.462113</v>
       </c>
       <c r="O23">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P23">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q23">
-        <v>86.23975068827201</v>
+        <v>2175.050131102438</v>
       </c>
       <c r="R23">
-        <v>776.157756194448</v>
+        <v>19575.45117992195</v>
       </c>
       <c r="S23">
-        <v>0.02133580183183335</v>
+        <v>0.3394865666766583</v>
       </c>
       <c r="T23">
-        <v>0.02133580183183335</v>
+        <v>0.3394865666766584</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,108 +1907,170 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.616884</v>
+        <v>9.924754999999999</v>
       </c>
       <c r="H24">
-        <v>1.850652</v>
+        <v>29.774265</v>
       </c>
       <c r="I24">
-        <v>0.06526848979743848</v>
+        <v>0.8812789791438517</v>
       </c>
       <c r="J24">
-        <v>0.06526848979743848</v>
+        <v>0.8812789791438517</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>188.11053</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N24">
-        <v>564.33159</v>
+        <v>0.13486</v>
       </c>
       <c r="O24">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P24">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q24">
-        <v>116.04237618852</v>
+        <v>0.4461508197666667</v>
       </c>
       <c r="R24">
-        <v>1044.38138569668</v>
+        <v>4.0153573779</v>
       </c>
       <c r="S24">
-        <v>0.0287090016227287</v>
+        <v>6.96361926820476E-05</v>
       </c>
       <c r="T24">
-        <v>0.0287090016227287</v>
+        <v>6.96361926820476E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>9.924754999999999</v>
+      </c>
+      <c r="H25">
+        <v>29.774265</v>
+      </c>
+      <c r="I25">
+        <v>0.8812789791438517</v>
+      </c>
+      <c r="J25">
+        <v>0.8812789791438517</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>218.9871216666667</v>
+      </c>
+      <c r="N25">
+        <v>656.961365</v>
+      </c>
+      <c r="O25">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="P25">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="Q25">
+        <v>2173.393530696858</v>
+      </c>
+      <c r="R25">
+        <v>19560.54177627173</v>
+      </c>
+      <c r="S25">
+        <v>0.3392280008735059</v>
+      </c>
+      <c r="T25">
+        <v>0.3392280008735059</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
         <v>27</v>
       </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.616884</v>
-      </c>
-      <c r="H25">
-        <v>1.850652</v>
-      </c>
-      <c r="I25">
-        <v>0.06526848979743848</v>
-      </c>
-      <c r="J25">
-        <v>0.06526848979743848</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>99.694255</v>
-      </c>
-      <c r="N25">
-        <v>299.082765</v>
-      </c>
-      <c r="O25">
-        <v>0.2331157147689297</v>
-      </c>
-      <c r="P25">
-        <v>0.2331157147689298</v>
-      </c>
-      <c r="Q25">
-        <v>61.49979080142</v>
-      </c>
-      <c r="R25">
-        <v>553.49811721278</v>
-      </c>
-      <c r="S25">
-        <v>0.01521511065101847</v>
-      </c>
-      <c r="T25">
-        <v>0.01521511065101847</v>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>9.924754999999999</v>
+      </c>
+      <c r="H26">
+        <v>29.774265</v>
+      </c>
+      <c r="I26">
+        <v>0.8812789791438517</v>
+      </c>
+      <c r="J26">
+        <v>0.8812789791438517</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>128.612531</v>
+      </c>
+      <c r="N26">
+        <v>385.837593</v>
+      </c>
+      <c r="O26">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="P26">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="Q26">
+        <v>1276.447860104905</v>
+      </c>
+      <c r="R26">
+        <v>11488.03074094415</v>
+      </c>
+      <c r="S26">
+        <v>0.199230765016502</v>
+      </c>
+      <c r="T26">
+        <v>0.199230765016502</v>
       </c>
     </row>
   </sheetData>
